--- a/Group Doc/Path-Grid.xlsx
+++ b/Group Doc/Path-Grid.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tundealuko/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43E72896-0AF8-4398-9614-565BD2DE9052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EC4D15-9ACA-E046-B195-F1199C2CA1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="33240" yWindow="500" windowWidth="30120" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2739,7 +2740,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2755,12 +2756,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -2910,18 +2923,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3235,2775 +3253,2775 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AC2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" s="2"/>
+      <c r="AE2" s="1"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X3" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Y3" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Z3" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AA3" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AB3" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AC3" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AD3" s="12" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W4" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X4" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y4" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z4" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA4" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB4" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC4" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="AD4" s="7" t="s">
+      <c r="AD4" s="12" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="X5" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Y5" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="Z5" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AA5" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AB5" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AC5" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="AD5" s="7" t="s">
+      <c r="AD5" s="12" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W6" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="X6" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Y6" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="Z6" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AA6" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AB6" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AC6" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="AD6" s="7" t="s">
+      <c r="AD6" s="12" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="X7" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Y7" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="Z7" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AA7" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AB7" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AC7" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="AD7" s="7" t="s">
+      <c r="AD7" s="12" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="V8" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="X8" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Y8" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="Z8" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AA8" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AB8" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AC8" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="AD8" s="7" t="s">
+      <c r="AD8" s="12" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="U9" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="W9" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="X9" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Y9" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="Z9" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="AA9" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AB9" s="1" t="s">
+      <c r="AB9" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AC9" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="AD9" s="7" t="s">
+      <c r="AD9" s="12" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="X10" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Y10" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="Z10" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="AA10" s="1" t="s">
+      <c r="AA10" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AB10" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AC10" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="AD10" s="7" t="s">
+      <c r="AD10" s="12" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="T11" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="U11" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="W11" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="X11" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="Y11" s="1" t="s">
+      <c r="Y11" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="Z11" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AA11" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="AB11" s="1" t="s">
+      <c r="AB11" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AC11" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="AD11" s="7" t="s">
+      <c r="AD11" s="12" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="P12" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="S12" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="U12" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="V12" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="W12" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="X12" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Y12" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="Z12" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="AA12" s="1" t="s">
+      <c r="AA12" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AB12" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AC12" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="AD12" s="7" t="s">
+      <c r="AD12" s="12" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="U13" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="V13" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="X13" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Y13" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="Z13" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="AA13" s="1" t="s">
+      <c r="AA13" s="11" t="s">
         <v>544</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AB13" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AC13" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="AD13" s="7" t="s">
+      <c r="AD13" s="12" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="R14" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="T14" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="U14" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="V14" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="W14" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="X14" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="Y14" s="1" t="s">
+      <c r="Y14" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="Z14" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="AA14" s="1" t="s">
+      <c r="AA14" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="AB14" s="1" t="s">
+      <c r="AB14" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AC14" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="AD14" s="7" t="s">
+      <c r="AD14" s="12" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S15" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="X15" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Y15" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="Z15" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AA15" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AB15" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AC15" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="AD15" s="7" t="s">
+      <c r="AD15" s="12" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R16" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="S16" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="U16" s="11" t="s">
         <v>604</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="V16" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="W16" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="X16" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Y16" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="Z16" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="AA16" s="1" t="s">
+      <c r="AA16" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="AB16" s="1" t="s">
+      <c r="AB16" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="AC16" s="1" t="s">
+      <c r="AC16" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="AD16" s="7" t="s">
+      <c r="AD16" s="12" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="R17" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="S17" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="U17" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="V17" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="X17" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="Y17" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="Z17" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AA17" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="AB17" s="1" t="s">
+      <c r="AB17" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AC17" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="AD17" s="7" t="s">
+      <c r="AD17" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="AE17" s="2"/>
+      <c r="AE17" s="1"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="P18" s="11" t="s">
         <v>643</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" s="11" t="s">
         <v>644</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" s="11" t="s">
         <v>645</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S18" s="11" t="s">
         <v>646</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T18" s="11" t="s">
         <v>647</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U18" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="V18" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="W18" s="11" t="s">
         <v>650</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="X18" s="11" t="s">
         <v>651</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Y18" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="Z18" s="11" t="s">
         <v>653</v>
       </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AA18" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="AB18" s="1" t="s">
+      <c r="AB18" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AC18" s="11" t="s">
         <v>656</v>
       </c>
-      <c r="AD18" s="7" t="s">
+      <c r="AD18" s="12" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="P19" s="11" t="s">
         <v>665</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="Q19" s="11" t="s">
         <v>666</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="R19" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="S19" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="U19" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="V19" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="W19" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="X19" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="Y19" s="1" t="s">
+      <c r="Y19" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="Z19" s="1" t="s">
+      <c r="Z19" s="11" t="s">
         <v>675</v>
       </c>
-      <c r="AA19" s="1" t="s">
+      <c r="AA19" s="11" t="s">
         <v>676</v>
       </c>
-      <c r="AB19" s="1" t="s">
+      <c r="AB19" s="11" t="s">
         <v>677</v>
       </c>
-      <c r="AC19" s="1" t="s">
+      <c r="AC19" s="11" t="s">
         <v>678</v>
       </c>
-      <c r="AD19" s="7" t="s">
+      <c r="AD19" s="12" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O20" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="P20" s="11" t="s">
         <v>687</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q20" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="R20" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="S20" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="U20" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="V20" s="11" t="s">
         <v>693</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" s="11" t="s">
         <v>694</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="X20" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="Y20" s="11" t="s">
         <v>696</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="Z20" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="AA20" s="1" t="s">
+      <c r="AA20" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="AB20" s="1" t="s">
+      <c r="AB20" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="AC20" s="1" t="s">
+      <c r="AC20" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="AD20" s="7" t="s">
+      <c r="AD20" s="12" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="P21" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="Q21" s="11" t="s">
         <v>710</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="R21" s="11" t="s">
         <v>711</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="S21" s="11" t="s">
         <v>712</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="T21" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="U21" s="11" t="s">
         <v>714</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="V21" s="11" t="s">
         <v>715</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="W21" s="11" t="s">
         <v>716</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="X21" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Y21" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="Z21" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="AA21" s="1" t="s">
+      <c r="AA21" s="11" t="s">
         <v>720</v>
       </c>
-      <c r="AB21" s="1" t="s">
+      <c r="AB21" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AC21" s="11" t="s">
         <v>722</v>
       </c>
-      <c r="AD21" s="7" t="s">
+      <c r="AD21" s="12" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" s="11" t="s">
         <v>732</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="R22" s="11" t="s">
         <v>733</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="S22" s="11" t="s">
         <v>734</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="T22" s="11" t="s">
         <v>735</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="U22" s="11" t="s">
         <v>736</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="V22" s="11" t="s">
         <v>737</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="W22" s="11" t="s">
         <v>738</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="X22" s="11" t="s">
         <v>739</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Y22" s="11" t="s">
         <v>740</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="Z22" s="11" t="s">
         <v>741</v>
       </c>
-      <c r="AA22" s="1" t="s">
+      <c r="AA22" s="11" t="s">
         <v>742</v>
       </c>
-      <c r="AB22" s="1" t="s">
+      <c r="AB22" s="11" t="s">
         <v>743</v>
       </c>
-      <c r="AC22" s="1" t="s">
+      <c r="AC22" s="11" t="s">
         <v>744</v>
       </c>
-      <c r="AD22" s="7" t="s">
+      <c r="AD22" s="12" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="O23" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="P23" s="11" t="s">
         <v>753</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="Q23" s="11" t="s">
         <v>754</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="R23" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="S23" s="11" t="s">
         <v>756</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="T23" s="11" t="s">
         <v>757</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="U23" s="11" t="s">
         <v>758</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="V23" s="11" t="s">
         <v>759</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="W23" s="11" t="s">
         <v>760</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="X23" s="11" t="s">
         <v>761</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="Y23" s="11" t="s">
         <v>762</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="Z23" s="11" t="s">
         <v>763</v>
       </c>
-      <c r="AA23" s="1" t="s">
+      <c r="AA23" s="11" t="s">
         <v>764</v>
       </c>
-      <c r="AB23" s="1" t="s">
+      <c r="AB23" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="AC23" s="1" t="s">
+      <c r="AC23" s="11" t="s">
         <v>766</v>
       </c>
-      <c r="AD23" s="7" t="s">
+      <c r="AD23" s="12" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="P24" s="11" t="s">
         <v>775</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="Q24" s="11" t="s">
         <v>776</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="R24" s="11" t="s">
         <v>777</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="S24" s="11" t="s">
         <v>778</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="T24" s="11" t="s">
         <v>779</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="U24" s="11" t="s">
         <v>780</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="V24" s="11" t="s">
         <v>781</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="W24" s="11" t="s">
         <v>782</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="X24" s="11" t="s">
         <v>783</v>
       </c>
-      <c r="Y24" s="1" t="s">
+      <c r="Y24" s="11" t="s">
         <v>784</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="Z24" s="11" t="s">
         <v>785</v>
       </c>
-      <c r="AA24" s="1" t="s">
+      <c r="AA24" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="AB24" s="1" t="s">
+      <c r="AB24" s="11" t="s">
         <v>787</v>
       </c>
-      <c r="AC24" s="1" t="s">
+      <c r="AC24" s="11" t="s">
         <v>788</v>
       </c>
-      <c r="AD24" s="7" t="s">
+      <c r="AD24" s="12" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="O25" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="P25" s="11" t="s">
         <v>797</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="Q25" s="11" t="s">
         <v>798</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="R25" s="11" t="s">
         <v>799</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="S25" s="11" t="s">
         <v>800</v>
       </c>
-      <c r="T25" s="1" t="s">
+      <c r="T25" s="11" t="s">
         <v>801</v>
       </c>
-      <c r="U25" s="1" t="s">
+      <c r="U25" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="V25" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="W25" s="11" t="s">
         <v>804</v>
       </c>
-      <c r="X25" s="1" t="s">
+      <c r="X25" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="Y25" s="1" t="s">
+      <c r="Y25" s="11" t="s">
         <v>806</v>
       </c>
-      <c r="Z25" s="1" t="s">
+      <c r="Z25" s="11" t="s">
         <v>807</v>
       </c>
-      <c r="AA25" s="1" t="s">
+      <c r="AA25" s="11" t="s">
         <v>808</v>
       </c>
-      <c r="AB25" s="1" t="s">
+      <c r="AB25" s="11" t="s">
         <v>809</v>
       </c>
-      <c r="AC25" s="1" t="s">
+      <c r="AC25" s="11" t="s">
         <v>810</v>
       </c>
-      <c r="AD25" s="7" t="s">
+      <c r="AD25" s="12" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="5" t="s">
         <v>812</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="O26" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="P26" s="11" t="s">
         <v>819</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="Q26" s="11" t="s">
         <v>820</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="R26" s="11" t="s">
         <v>821</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="S26" s="11" t="s">
         <v>822</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="T26" s="11" t="s">
         <v>823</v>
       </c>
-      <c r="U26" s="1" t="s">
+      <c r="U26" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="V26" s="11" t="s">
         <v>825</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="W26" s="11" t="s">
         <v>826</v>
       </c>
-      <c r="X26" s="1" t="s">
+      <c r="X26" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="Y26" s="1" t="s">
+      <c r="Y26" s="11" t="s">
         <v>828</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="Z26" s="11" t="s">
         <v>829</v>
       </c>
-      <c r="AA26" s="1" t="s">
+      <c r="AA26" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="AB26" s="1" t="s">
+      <c r="AB26" s="11" t="s">
         <v>831</v>
       </c>
-      <c r="AC26" s="1" t="s">
+      <c r="AC26" s="11" t="s">
         <v>832</v>
       </c>
-      <c r="AD26" s="7" t="s">
+      <c r="AD26" s="12" t="s">
         <v>833</v>
       </c>
-      <c r="AE26" s="2"/>
+      <c r="AE26" s="1"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="5" t="s">
         <v>834</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L27" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N27" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="O27" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="P27" s="11" t="s">
         <v>841</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="Q27" s="11" t="s">
         <v>842</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="R27" s="11" t="s">
         <v>843</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="S27" s="11" t="s">
         <v>844</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="T27" s="11" t="s">
         <v>845</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="U27" s="11" t="s">
         <v>846</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="V27" s="11" t="s">
         <v>847</v>
       </c>
-      <c r="W27" s="1" t="s">
+      <c r="W27" s="11" t="s">
         <v>848</v>
       </c>
-      <c r="X27" s="1" t="s">
+      <c r="X27" s="11" t="s">
         <v>849</v>
       </c>
-      <c r="Y27" s="1" t="s">
+      <c r="Y27" s="11" t="s">
         <v>850</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="Z27" s="11" t="s">
         <v>851</v>
       </c>
-      <c r="AA27" s="1" t="s">
+      <c r="AA27" s="11" t="s">
         <v>852</v>
       </c>
-      <c r="AB27" s="1" t="s">
+      <c r="AB27" s="11" t="s">
         <v>853</v>
       </c>
-      <c r="AC27" s="1" t="s">
+      <c r="AC27" s="11" t="s">
         <v>854</v>
       </c>
-      <c r="AD27" s="7" t="s">
+      <c r="AD27" s="12" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="5" t="s">
         <v>856</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="5" t="s">
         <v>859</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" s="5" t="s">
         <v>860</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" s="5" t="s">
         <v>861</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="P28" s="11" t="s">
         <v>863</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="Q28" s="11" t="s">
         <v>864</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="R28" s="11" t="s">
         <v>865</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="S28" s="11" t="s">
         <v>866</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="T28" s="11" t="s">
         <v>867</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="U28" s="11" t="s">
         <v>868</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="V28" s="11" t="s">
         <v>869</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="W28" s="11" t="s">
         <v>870</v>
       </c>
-      <c r="X28" s="1" t="s">
+      <c r="X28" s="11" t="s">
         <v>871</v>
       </c>
-      <c r="Y28" s="1" t="s">
+      <c r="Y28" s="11" t="s">
         <v>872</v>
       </c>
-      <c r="Z28" s="1" t="s">
+      <c r="Z28" s="11" t="s">
         <v>873</v>
       </c>
-      <c r="AA28" s="1" t="s">
+      <c r="AA28" s="11" t="s">
         <v>874</v>
       </c>
-      <c r="AB28" s="1" t="s">
+      <c r="AB28" s="11" t="s">
         <v>875</v>
       </c>
-      <c r="AC28" s="1" t="s">
+      <c r="AC28" s="11" t="s">
         <v>876</v>
       </c>
-      <c r="AD28" s="7" t="s">
+      <c r="AD28" s="12" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="5" t="s">
         <v>878</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="5" t="s">
         <v>879</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="5" t="s">
         <v>880</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="5" t="s">
         <v>882</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="O29" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="P29" s="11" t="s">
         <v>885</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="Q29" s="11" t="s">
         <v>886</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="R29" s="11" t="s">
         <v>887</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="S29" s="11" t="s">
         <v>888</v>
       </c>
-      <c r="T29" s="1" t="s">
+      <c r="T29" s="11" t="s">
         <v>889</v>
       </c>
-      <c r="U29" s="1" t="s">
+      <c r="U29" s="11" t="s">
         <v>890</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="V29" s="11" t="s">
         <v>891</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="W29" s="11" t="s">
         <v>892</v>
       </c>
-      <c r="X29" s="1" t="s">
+      <c r="X29" s="11" t="s">
         <v>893</v>
       </c>
-      <c r="Y29" s="1" t="s">
+      <c r="Y29" s="11" t="s">
         <v>894</v>
       </c>
-      <c r="Z29" s="1" t="s">
+      <c r="Z29" s="11" t="s">
         <v>895</v>
       </c>
-      <c r="AA29" s="1" t="s">
+      <c r="AA29" s="11" t="s">
         <v>896</v>
       </c>
-      <c r="AB29" s="1" t="s">
+      <c r="AB29" s="11" t="s">
         <v>897</v>
       </c>
-      <c r="AC29" s="1" t="s">
+      <c r="AC29" s="11" t="s">
         <v>898</v>
       </c>
-      <c r="AD29" s="7" t="s">
+      <c r="AD29" s="12" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="M30" s="9" t="s">
+      <c r="M30" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="N30" s="9" t="s">
+      <c r="N30" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="O30" s="9" t="s">
+      <c r="O30" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P30" s="9" t="s">
+      <c r="P30" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="Q30" s="9" t="s">
+      <c r="Q30" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="R30" s="9" t="s">
+      <c r="R30" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="S30" s="9" t="s">
+      <c r="S30" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="T30" s="9" t="s">
+      <c r="T30" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="U30" s="9" t="s">
+      <c r="U30" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="V30" s="9" t="s">
+      <c r="V30" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="W30" s="9" t="s">
+      <c r="W30" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="X30" s="9" t="s">
+      <c r="X30" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="Y30" s="9" t="s">
+      <c r="Y30" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="Z30" s="9" t="s">
+      <c r="Z30" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="AA30" s="9" t="s">
+      <c r="AA30" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="AB30" s="9" t="s">
+      <c r="AB30" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="AC30" s="9" t="s">
+      <c r="AC30" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="AD30" s="10" t="s">
+      <c r="AD30" s="14" t="s">
         <v>309</v>
       </c>
     </row>
@@ -6012,4 +6030,80 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EC18AC-C7F7-3D4A-8715-2FF26CE6CA22}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A1:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15"/>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>